--- a/Graphs/1/PIe Chart/Book1.xlsx
+++ b/Graphs/1/PIe Chart/Book1.xlsx
@@ -21,25 +21,25 @@
     <t>Compressed air</t>
   </si>
   <si>
-    <t>Dewatering</t>
+    <t>Ventilation and cooling</t>
   </si>
   <si>
-    <t>Ventilation</t>
+    <t>Pumping</t>
   </si>
   <si>
-    <t>Other</t>
+    <t>Hoisting</t>
   </si>
   <si>
-    <t>Cooling systems</t>
+    <t xml:space="preserve">Other </t>
   </si>
   <si>
-    <t>lighting</t>
+    <t>Office buildings and hostels</t>
   </si>
   <si>
-    <t>processing</t>
+    <t>Processing plant</t>
   </si>
   <si>
-    <t>Material handling</t>
+    <t>Mining process</t>
   </si>
 </sst>
 </file>
@@ -106,56 +106,17 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="2400">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="85000"/>
-                    <a:lumOff val="15000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
-                <a:ea typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
-                <a:cs typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-ZA" sz="2400">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="85000"/>
-                    <a:lumOff val="15000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
-                <a:ea typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
-                <a:cs typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
-              </a:rPr>
-              <a:t>Typical mining energy split</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="1"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.32589637286938888"/>
-          <c:y val="0.12275963164510832"/>
-          <c:w val="0.3430487539941886"/>
-          <c:h val="0.69519558105158852"/>
+          <c:x val="0.39056149466385442"/>
+          <c:y val="3.1235970698670467E-2"/>
+          <c:w val="0.42311033335876508"/>
+          <c:h val="0.85744207091118285"/>
         </c:manualLayout>
       </c:layout>
       <c:pieChart>
@@ -166,13 +127,16 @@
           <c:spPr>
             <a:ln>
               <a:solidFill>
-                <a:schemeClr val="bg1"/>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
             </a:ln>
           </c:spPr>
           <c:dPt>
             <c:idx val="0"/>
             <c:bubble3D val="0"/>
+            <c:explosion val="7"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="tx2">
@@ -182,7 +146,9 @@
               </a:solidFill>
               <a:ln>
                 <a:solidFill>
-                  <a:schemeClr val="bg1"/>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
                 </a:solidFill>
               </a:ln>
             </c:spPr>
@@ -199,7 +165,9 @@
               </a:solidFill>
               <a:ln>
                 <a:solidFill>
-                  <a:schemeClr val="bg1"/>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
                 </a:solidFill>
               </a:ln>
             </c:spPr>
@@ -216,7 +184,9 @@
               </a:solidFill>
               <a:ln>
                 <a:solidFill>
-                  <a:schemeClr val="bg1"/>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
                 </a:solidFill>
               </a:ln>
             </c:spPr>
@@ -233,9 +203,8 @@
               </a:solidFill>
               <a:ln>
                 <a:solidFill>
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="40000"/>
-                    <a:lumOff val="60000"/>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="75000"/>
                   </a:schemeClr>
                 </a:solidFill>
               </a:ln>
@@ -252,7 +221,9 @@
               </a:solidFill>
               <a:ln>
                 <a:solidFill>
-                  <a:schemeClr val="bg1"/>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
                 </a:solidFill>
               </a:ln>
             </c:spPr>
@@ -268,7 +239,9 @@
               </a:solidFill>
               <a:ln>
                 <a:solidFill>
-                  <a:schemeClr val="bg1"/>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
                 </a:solidFill>
               </a:ln>
             </c:spPr>
@@ -285,7 +258,9 @@
               </a:solidFill>
               <a:ln>
                 <a:solidFill>
-                  <a:schemeClr val="bg1"/>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
                 </a:solidFill>
               </a:ln>
             </c:spPr>
@@ -302,12 +277,158 @@
               </a:solidFill>
               <a:ln>
                 <a:solidFill>
-                  <a:schemeClr val="bg1"/>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
                 </a:solidFill>
               </a:ln>
             </c:spPr>
           </c:dPt>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.12984325678801931"/>
+                  <c:y val="0.17108684347373895"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.17637187690334161"/>
+                  <c:y val="-0.10972569926419104"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.5460750913927256E-2"/>
+                  <c:y val="-0.19088923556942278"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.2032755902864437E-2"/>
+                  <c:y val="0"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.6099376576823562E-2"/>
+                  <c:y val="1.3220320938821806E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.0151355664150645E-2"/>
+                  <c:y val="-5.4913213851388698E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.12497979467510484"/>
+                  <c:y val="0.13932184373989132"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="6.0125631860920119E-2"/>
+                  <c:y val="7.8003120124804995E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+            </c:dLbl>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
@@ -322,13 +443,15 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="inEnd"/>
+            <c:dLblPos val="bestFit"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
+            <c:showCatName val="1"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
+            <c:separator>
+</c:separator>
             <c:showLeaderLines val="1"/>
           </c:dLbls>
           <c:cat>
@@ -340,25 +463,25 @@
                   <c:v>Compressed air</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Cooling systems</c:v>
+                  <c:v>Mining process</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Dewatering</c:v>
+                  <c:v>Pumping</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Ventilation</c:v>
+                  <c:v>Ventilation and cooling</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>lighting</c:v>
+                  <c:v>Office buildings and hostels</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Material handling</c:v>
+                  <c:v>Processing plant</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>processing</c:v>
+                  <c:v>Hoisting</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Other</c:v>
+                  <c:v>Other </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -370,25 +493,25 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.17</c:v>
+                  <c:v>0.21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.05</c:v>
+                  <c:v>0.19</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.14000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.0000000000000007E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.23</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.19</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.1</c:v>
@@ -398,7 +521,7 @@
           </c:val>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="inEnd"/>
+          <c:dLblPos val="bestFit"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
           <c:showCatName val="0"/>
@@ -410,38 +533,6 @@
         <c:firstSliceAng val="0"/>
       </c:pieChart>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="2400">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="85000"/>
-                  <a:lumOff val="15000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
-              <a:ea typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
-              <a:cs typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -463,16 +554,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>609599</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>428624</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -783,13 +874,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D25" sqref="C25:D25"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:9" x14ac:dyDescent="0.25">
@@ -797,23 +888,23 @@
         <v>0</v>
       </c>
       <c r="D3" s="1">
-        <v>0.17</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="4" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D4" s="1">
-        <v>0.05</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="5" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" s="1">
-        <v>0.14000000000000001</v>
+        <v>0.18</v>
       </c>
       <c r="I5">
         <f>5+5+7+14+17+19+23+10</f>
@@ -822,10 +913,10 @@
     </row>
     <row r="6" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="7" spans="3:9" x14ac:dyDescent="0.25">
@@ -833,28 +924,28 @@
         <v>5</v>
       </c>
       <c r="D7" s="1">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="8" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8" s="1">
-        <v>0.23</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="9" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D9" s="1">
-        <v>0.19</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="10" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" s="1">
         <v>0.1</v>
@@ -863,10 +954,13 @@
     <row r="11" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D11" s="1">
         <f>SUM(D3:D10)</f>
-        <v>1.0000000000000002</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="C3:D10">
+    <sortCondition descending="1" ref="D3"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
